--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayan Amhali\OneDrive\Documenten\DTT assessment  - Backend_2023\DTT assessment  - Backend_2023 copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01163C7-CE32-4CC6-96BE-9A4409106774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5691D728-204C-4AC1-A8E3-84D5FA06E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2655" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="2475" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>I've started working on the assessment again resuming with the readme.md and figured out on beginning with the Postman Collection. I've had problems with trying to figure out where the collection was. Later on I found it was in the same file as the excel sheet. I've looked up on how I could start beginning with Postman and how to set the collection variable on stack overflow (https://stackoverflow.com/questions/77921027/set-in-postman-collection-baseurl). Later on I started working on making the database as requested in User story 1. My previous database wasn't  well set-up so i've made it properly using the 1st user story. This database has now everything included with 4 tables (Facility, Facility_tag, Location and Tag). In this Database Facility_tag is the conjunction table where it has 2 foreign keys and those being the Facility_id and Tag_id. Further more in Facility the primary key is Facility_id and has other columns like Facility_name and creation_date and location_id. location_id is the foreign key in facility and is the primary key in the location table. I've tested if there could be duplicated but luckily there can't be any. I've also put the whole assessment on GitHub to work away from home. Sources I used to achieve this: (Database Many to Many relationship [https://www.beekeeperstudio.io/blog/many-to-many-database-relationships-complete-guide]) (How to Connect tables with foreign keys [https://medium.com/@andrewsuryadarmahendry02/how-to-connect-your-tables-with-foreign-keys-in-phpmyadmin-732ade8bd0a9]) (I've used some help from AI to help me understand certain controls in PHPmyadmin and let it further explain what I was doing to realise the actual progress I was making.</t>
   </si>
   <si>
-    <t>After a week work I finally managed to be done with the assessment (Atleast what I think is complete). I really wanted to get this whole search query done and happen to get it after trying for so long. To list everything I did will make me write a whole story so I'll keep it short. I made the search query better with 3 key values (name, city and tag). Some checks for the parameters. Made an Dynamic query to ensure it would work if 2 options of the 3 are filled in and will show the tables of the key values that come close or are matching with the database. Made a updateField function in BaseModel to stop using the same function details in the same file 2 times. Added a Errorhandling function that just asks the results, name of the entity and op for the operation like created, updated etc. Further more just some reworks on older files to ensure they follow the PSR standards and use the new functions if needed. The updateModel has been reworked to a much better state it was before. It has less text now and is in my opinion the best file I've ever made. Its not complex and just asks for input , updates this in the database and show a response. With the search query I still was getting hindered at . I didn't come up that fast with a dynamic query but it was made because for example. "key1=testvalue&amp;key2= " This would get all the tables back and this should not happen. I've searched a stackoverflow page to get to learn about a dynamic query. This did took me a while but eventually I made one. After that I went ahead and check every file to ensure it gets into the PSR standards and used comments based on what other functions have. I think I did a pretty good job although I may have sometimes used AI, that was purely to get explanations of certain lines of codes and asking certain questions which in my opinion would be better if I asked in my native language.</t>
+    <t>After a week work I finally managed to be done with the assessment (Atleast what I think is complete). I really wanted to get this whole search query done and happen to get it after trying for so long. To list everything I did will make me write a whole story so I'll keep it short. I made the search query better with 3 key values (name, city and tag). Some checks for the parameters. Made an Dynamic query to ensure it would work if 2 options of the 3 are filled in and will show the tables of the key values that come close or are matching with the database. Made a updateField function in BaseModel to stop using the same function details in the same file 2 times. Added a Errorhandling function that just asks the results, name of the entity and op for the operation like created, updated etc. Further more just some reworks on older files to ensure they follow the PSR standards and use the new functions if needed. The updateModel has been reworked to a much better state it was before. It has less text now and is in my opinion the best file I've ever made. Its not complex and just asks for input , updates this in the database and show a response. With the search query I still was getting hindered at . I didn't come up that fast with a dynamic query but it was made because for example. "key1=testvalue&amp;key2= " This would get all the tables back and this should not happen. I've searched a stackoverflow page to get to learn about a dynamic query. This did took me a while but eventually I made one. After that I went ahead and check every file to ensure it gets into the PSR standards and used comments based on what other functions have. I think I did a pretty good job although I may have sometimes used AI, that was purely to get explanations of certain lines of codes and asking certain questions which in my opinion would be better if I asked in my native language. sources https://stackoverflow.com/questions/4165020/what-is-dynamic-sql https://stackoverflow.com/questions/54930442/sql-combining-wildcard-with-variable-placeholder https://www.php.net/manual/en/function.trim.php</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
